--- a/public/template/template_product_price.xlsx
+++ b/public/template/template_product_price.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INARTS-USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ampps\www\consys\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>lokasi</t>
-  </si>
-  <si>
     <t>harga_jasa</t>
   </si>
   <si>
@@ -36,6 +33,9 @@
   </si>
   <si>
     <t>jakarta</t>
+  </si>
+  <si>
+    <t>price_coverage</t>
   </si>
 </sst>
 </file>
@@ -357,28 +357,29 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>10000</v>

--- a/public/template/template_product_price.xlsx
+++ b/public/template/template_product_price.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ampps\www\consys\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NURUL-CONOCO\www\consys\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>harga_jasa</t>
   </si>
@@ -32,16 +32,43 @@
     <t>harga_barang</t>
   </si>
   <si>
-    <t>jakarta</t>
-  </si>
-  <si>
-    <t>price_coverage</t>
+    <t>provinsi</t>
+  </si>
+  <si>
+    <t>jawa barat</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>group_coverage</t>
+  </si>
+  <si>
+    <t>jenis_referensi</t>
+  </si>
+  <si>
+    <t>referensi</t>
+  </si>
+  <si>
+    <t>freetext</t>
+  </si>
+  <si>
+    <t>test freetext</t>
+  </si>
+  <si>
+    <t>kontrak</t>
+  </si>
+  <si>
+    <t>jawa tengah</t>
+  </si>
+  <si>
+    <t>K.TEL.00002/HK.810/PSC-a1030000/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,38 +381,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>10000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>20000</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
